--- a/medicine/Médecine vétérinaire/Besnoitiose/Besnoitiose.xlsx
+++ b/medicine/Médecine vétérinaire/Besnoitiose/Besnoitiose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>La besnoitiose est une maladie de la peau, des vaisseaux sanguins, des muqueuses et d'autres tissus des animaux due à un protozoaire du genre Besnoitia[1].
-Les parasites responsables de cette maladie comprennent[1] :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>La besnoitiose est une maladie de la peau, des vaisseaux sanguins, des muqueuses et d'autres tissus des animaux due à un protozoaire du genre Besnoitia.
+Les parasites responsables de cette maladie comprennent :
 Besnoitia besnoiti chez les bovins (besnoitiose bovine) : gonflement des ganglions lymphatiques, gonflements sous-cutanés, diarrhée, avortement et infertilité
 Besnoitia bennetti chez les chevaux et les ânes : dermatite grave et étendue
 Besnoitia jellisoni et B. wallacei chez les rongeurs
